--- a/BackLog Assistlist.2.xlsx
+++ b/BackLog Assistlist.2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harold\Desktop\Gamelab1Groep2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mack\Desktop\Nina-s-big-little-adventure\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1531,8 +1531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K331"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D283" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G286" sqref="G286"/>
+    <sheetView tabSelected="1" topLeftCell="A286" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G297" sqref="G297:H297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6114,7 +6114,7 @@
         <v>2</v>
       </c>
       <c r="F300" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K300" s="12"/>
     </row>
